--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value815.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value815.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.595609652992531</v>
+        <v>3.399670124053955</v>
       </c>
       <c r="B1">
-        <v>3.02626253595846</v>
+        <v>4.149391651153564</v>
       </c>
       <c r="C1">
-        <v>1.998670875104831</v>
+        <v>0.1961207985877991</v>
       </c>
       <c r="D1">
-        <v>1.738617553056904</v>
+        <v>0.2006788700819016</v>
       </c>
       <c r="E1">
-        <v>1.691124317621054</v>
+        <v>0.3051038682460785</v>
       </c>
     </row>
   </sheetData>
